--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_9.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2995243.61350639</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20355670.24425592</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -1133,70 +1133,70 @@
         <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6263639150735093</v>
+      </c>
+      <c r="X8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>22.56635248423083</v>
       </c>
       <c r="Y8" t="n">
         <v>25.62029119463083</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
         <v>25.62029119463083</v>
@@ -1260,10 +1260,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>23.19571111787229</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
         <v>25.62029119463083</v>
@@ -1424,7 +1424,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.81976115797297</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
         <v>25.62029119463083</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H13" t="n">
-        <v>23.19571111787229</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
         <v>25.62029119463083</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>25.62029119463083</v>
@@ -1625,34 +1625,34 @@
         <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="G17" t="n">
+      <c r="T17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="U17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
+      <c r="V17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,67 +1923,67 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="W18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,31 +2041,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T19" t="n">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U19" t="n">
-        <v>19.72731862540289</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.41978777916125</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>131.1597968056182</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>126.2780122029087</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,55 +2239,55 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="U24" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,70 +2558,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>92.02640584743135</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>16.16726461546785</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>39.84991521806149</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.93083432391725</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>79.26862298105107</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3202,37 +3202,37 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>34.777324116139</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>29.85921600351676</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>215.3939976830282</v>
+        <v>67.60478498420728</v>
       </c>
       <c r="V36" t="n">
         <v>215.3939976830282</v>
@@ -3408,7 +3408,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="X36" t="n">
-        <v>188.9724418329533</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,55 +3433,55 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>179.7283339446665</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>82.12594507674096</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>132.5254342595006</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>187.9840913941556</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>213.4242636173429</v>
+        <v>177.9933921796109</v>
       </c>
     </row>
     <row r="42">
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.7256592341942</v>
       </c>
       <c r="U42" t="n">
-        <v>129.5673497550175</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.92870531034908</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="C8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M8" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M8" t="n">
-        <v>78.14188814362403</v>
-      </c>
-      <c r="N8" t="n">
-        <v>102.4811647785233</v>
-      </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W8" t="n">
-        <v>102.4811647785233</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="X8" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G9" t="n">
-        <v>28.6828379631348</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
         <v>28.6828379631348</v>
@@ -4884,16 +4884,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M9" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L9" t="n">
-        <v>27.41371157825499</v>
-      </c>
-      <c r="M9" t="n">
-        <v>52.77779986093951</v>
-      </c>
       <c r="N9" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
         <v>77.1170764958388</v>
@@ -4908,25 +4908,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.6828379631348</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>76.30222351288816</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>24.54405948333093</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4981,31 +4981,31 @@
         <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.73223474306219</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>99.73223474306219</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>99.73223474306219</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.73223474306219</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5048,13 +5048,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
@@ -5063,13 +5063,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>79.68686933990632</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S11" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T11" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U11" t="n">
         <v>2.049623295570466</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F12" t="n">
-        <v>80.44100199269204</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G12" t="n">
-        <v>54.56191997791342</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H12" t="n">
         <v>28.6828379631348</v>
@@ -5121,49 +5121,49 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L12" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M12" t="n">
-        <v>77.1170764958388</v>
-      </c>
       <c r="N12" t="n">
-        <v>77.1170764958388</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O12" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H13" t="n">
         <v>76.30222351288816</v>
@@ -5215,34 +5215,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F14" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H14" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5279,16 +5279,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M14" t="n">
-        <v>77.1170764958388</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O14" t="n">
         <v>77.1170764958388</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>52.77779986093951</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>77.1170764958388</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5452,34 +5452,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5516,16 +5516,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M17" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O17" t="n">
         <v>83.04597603355158</v>
@@ -5540,25 +5540,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C18" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D18" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F18" t="n">
         <v>2.207202020825291</v>
@@ -5595,49 +5595,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V18" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S18" t="n">
-        <v>82.49138865710684</v>
-      </c>
-      <c r="T18" t="n">
-        <v>57.94462678914073</v>
-      </c>
-      <c r="U18" t="n">
-        <v>57.94462678914073</v>
-      </c>
-      <c r="V18" t="n">
-        <v>57.94462678914073</v>
-      </c>
       <c r="W18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="19">
@@ -5689,28 +5689,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
-        <v>77.87121125924466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S19" t="n">
-        <v>50.00249887508694</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T19" t="n">
-        <v>22.13378649092923</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U19" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
         <v>2.207202020825291</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G20" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>485.4562706347935</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C21" t="n">
-        <v>311.0032413536665</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D21" t="n">
-        <v>311.0032413536665</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E21" t="n">
-        <v>151.765786348211</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5841,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>491.8853017397161</v>
       </c>
       <c r="X21" t="n">
-        <v>485.4562706347935</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y21" t="n">
-        <v>485.4562706347935</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5935,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6163,25 +6163,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.1910343172051</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C27" t="n">
-        <v>547.1910343172051</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D27" t="n">
-        <v>398.2566246559538</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E27" t="n">
-        <v>305.3006591534979</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>547.1910343172051</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>547.1910343172051</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6421,10 +6421,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6546,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6652,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.0536540581672</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="C32" t="n">
-        <v>275.0536540581672</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>275.0536540581672</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>275.0536540581672</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
         <v>17.23151981464226</v>
@@ -6701,10 +6701,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
         <v>416.8664630901746</v>
@@ -6719,31 +6719,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>861.5759907321129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>710.1930433168102</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>710.1930433168102</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T32" t="n">
-        <v>492.6233486874887</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U32" t="n">
-        <v>492.6233486874887</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V32" t="n">
-        <v>492.6233486874887</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W32" t="n">
-        <v>275.0536540581672</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="X32" t="n">
-        <v>275.0536540581672</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="Y32" t="n">
-        <v>275.0536540581672</v>
+        <v>633.9146807345644</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>315.953932890268</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="C33" t="n">
-        <v>315.953932890268</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="D33" t="n">
-        <v>315.953932890268</v>
+        <v>506.9198005931917</v>
       </c>
       <c r="E33" t="n">
-        <v>156.7164778848125</v>
+        <v>506.9198005931917</v>
       </c>
       <c r="F33" t="n">
-        <v>156.7164778848125</v>
+        <v>360.3852426200767</v>
       </c>
       <c r="G33" t="n">
-        <v>17.98565246742797</v>
+        <v>221.6544172026922</v>
       </c>
       <c r="H33" t="n">
-        <v>17.98565246742797</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I33" t="n">
         <v>17.98565246742797</v>
@@ -6783,19 +6783,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4715775208402</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M33" t="n">
-        <v>443.7116352270382</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7116352270382</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>656.9516929332361</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>839.595170546587</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
@@ -6813,16 +6813,16 @@
         <v>586.9891167356675</v>
       </c>
       <c r="V33" t="n">
-        <v>369.419422106346</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="W33" t="n">
-        <v>369.419422106346</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="X33" t="n">
-        <v>369.419422106346</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="Y33" t="n">
-        <v>369.419422106346</v>
+        <v>586.9891167356675</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
         <v>17.23151981464226</v>
@@ -6880,28 +6880,28 @@
         <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="C35" t="n">
-        <v>452.3709090732851</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3709090732851</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="E35" t="n">
-        <v>452.3709090732851</v>
+        <v>264.9620386899402</v>
       </c>
       <c r="F35" t="n">
-        <v>234.8012144439637</v>
+        <v>264.9620386899402</v>
       </c>
       <c r="G35" t="n">
-        <v>17.23151981464226</v>
+        <v>264.9620386899402</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="I35" t="n">
         <v>17.23151981464226</v>
@@ -6944,13 +6944,13 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N35" t="n">
-        <v>622.7209852974139</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O35" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
@@ -6965,22 +6965,22 @@
         <v>700.1014279485831</v>
       </c>
       <c r="T35" t="n">
-        <v>482.5317333192617</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="U35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="V35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="W35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="X35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="Y35" t="n">
-        <v>452.3709090732851</v>
+        <v>700.1014279485831</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="C36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="D36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="E36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="F36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G36" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
@@ -7026,10 +7026,10 @@
         <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>648.335933025915</v>
+        <v>678.932513118762</v>
       </c>
       <c r="O36" t="n">
-        <v>861.5759907321129</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
         <v>861.5759907321129</v>
@@ -7044,22 +7044,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>861.5759907321129</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U36" t="n">
-        <v>644.0062961027915</v>
+        <v>591.1017344906696</v>
       </c>
       <c r="V36" t="n">
-        <v>426.43660147347</v>
+        <v>373.5320398613482</v>
       </c>
       <c r="W36" t="n">
-        <v>208.8669068441485</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="X36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.98565246742797</v>
+        <v>155.9623452320268</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
         <v>17.23151981464226</v>
@@ -7129,16 +7129,16 @@
         <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C38" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
         <v>17.23151981464226</v>
@@ -7175,10 +7175,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
         <v>416.8664630901746</v>
@@ -7199,22 +7199,22 @@
         <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="X38" t="n">
-        <v>669.9406037026066</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="Y38" t="n">
         <v>669.9406037026066</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.98565246742797</v>
+        <v>100.1870198921584</v>
       </c>
       <c r="C39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
         <v>17.23151981464226</v>
@@ -7257,16 +7257,16 @@
         <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4715775208402</v>
+        <v>39.21234000016818</v>
       </c>
       <c r="M39" t="n">
-        <v>443.7116352270382</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>656.9516929332361</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>861.5759907321129</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
         <v>861.5759907321129</v>
@@ -7275,28 +7275,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>586.9891167356675</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>586.9891167356675</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U39" t="n">
-        <v>453.1250417260709</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="V39" t="n">
-        <v>235.5553470967494</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="W39" t="n">
-        <v>17.98565246742797</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="X39" t="n">
-        <v>17.98565246742797</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.98565246742797</v>
+        <v>268.4023569122264</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="T40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>448.2340696092722</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
         <v>17.07394108938743</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="X41" t="n">
-        <v>853.6970544693717</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
     </row>
     <row r="42">
@@ -7494,43 +7494,43 @@
         <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>228.3639620705569</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="M42" t="n">
-        <v>439.6539830517264</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="N42" t="n">
-        <v>642.4070334882022</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>579.1101804729262</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>579.1101804729262</v>
+        <v>655.994368374226</v>
       </c>
       <c r="U42" t="n">
-        <v>448.2340696092722</v>
+        <v>440.4143041142837</v>
       </c>
       <c r="V42" t="n">
-        <v>232.6540053493298</v>
+        <v>440.4143041142837</v>
       </c>
       <c r="W42" t="n">
-        <v>17.07394108938743</v>
+        <v>224.8342398543413</v>
       </c>
       <c r="X42" t="n">
-        <v>17.07394108938743</v>
+        <v>224.8342398543413</v>
       </c>
       <c r="Y42" t="n">
         <v>17.07394108938743</v>
@@ -7591,19 +7591,19 @@
         <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
         <v>17.07394108938743</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8544,7 +8544,7 @@
         <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8696,16 +8696,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
         <v>256.8532869499004</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>247.6798763052967</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L17" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
         <v>258.8230210155857</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>169.0715212093943</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9966,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,10 +10203,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>353.9483774629024</v>
+        <v>306.0557124853233</v>
       </c>
       <c r="M33" t="n">
         <v>357.5280316050465</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.1846227582699</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>348.0675319949004</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10674,13 +10674,13 @@
         <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>211.409123942969</v>
+        <v>242.3147604003903</v>
       </c>
       <c r="O36" t="n">
-        <v>357.9902421274727</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>160.7572284521226</v>
       </c>
       <c r="M39" t="n">
         <v>357.5280316050465</v>
@@ -10914,10 +10914,10 @@
         <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>349.2874543422998</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>305.775483710872</v>
       </c>
       <c r="N42" t="n">
-        <v>336.1427731302785</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23021,7 +23021,7 @@
         <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
-        <v>339.6526005763767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>348.6146048023395</v>
       </c>
       <c r="X8" t="n">
-        <v>347.1647481942382</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
         <v>360.6176474614227</v>
@@ -23112,10 +23112,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
         <v>63.77634165678425</v>
@@ -23148,10 +23148,10 @@
         <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>178.3449675368486</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.0314613895673</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23303,7 +23303,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3027654569188</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
         <v>183.3997783916145</v>
@@ -23312,7 +23312,7 @@
         <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>225.7253617132057</v>
+        <v>228.7793004236057</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,13 +23346,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>86.61515304186563</v>
+        <v>90.41568307852349</v>
       </c>
       <c r="I12" t="n">
         <v>63.77634165678425</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0314613895673</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
         <v>129.8301837326275</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2557545470806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>389.6824463205042</v>
@@ -23513,7 +23513,7 @@
         <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>187.9095370861751</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,7 +23540,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,16 +23780,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D18" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F18" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8634344455351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,31 +23929,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>149.7033661168533</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>266.591710731088</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>255.0550143366059</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,10 +24054,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>13.90941558776564</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>45.40515890092915</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,13 +24105,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>354.4504772539638</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>81.80124353692524</v>
       </c>
       <c r="U24" t="n">
-        <v>141.8841621389552</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24446,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24525,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>65.6186746079696</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>62.17774896794338</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>102.68284301593</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>209.774117465507</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>185.5445578263411</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>367.02613052365</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>113.6023493259501</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>68.17644258358769</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>17.40658946639704</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25154,25 +25154,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F35" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>304.6974779996282</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>221.4864369043197</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,10 +25284,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>10.54738439794659</v>
+        <v>158.3365970967675</v>
       </c>
       <c r="V36" t="n">
         <v>17.40658946639704</v>
@@ -25296,7 +25296,7 @@
         <v>36.30098547789137</v>
       </c>
       <c r="X36" t="n">
-        <v>16.80054337052414</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
         <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29173564157887</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>206.5096047113871</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>90.58255391157478</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>93.41594782147419</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.749750269325</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.8136750387107</v>
+        <v>208.2445464764427</v>
       </c>
     </row>
     <row r="42">
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>4.439069460627451</v>
       </c>
       <c r="U42" t="n">
-        <v>96.37403232595733</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350035.0587549795</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488291.6158105898</v>
+        <v>488291.6158105901</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486869.422826439</v>
+        <v>486869.4228264391</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26314,16 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D2" t="n">
-        <v>51644.51686548873</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="E2" t="n">
         <v>51644.51686548873</v>
       </c>
       <c r="F2" t="n">
-        <v>51644.51686548874</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="G2" t="n">
         <v>51885.6233062447</v>
@@ -26332,25 +26332,25 @@
         <v>74772.30263909959</v>
       </c>
       <c r="I2" t="n">
+        <v>74772.30263909957</v>
+      </c>
+      <c r="J2" t="n">
         <v>74772.30263909958</v>
-      </c>
-      <c r="J2" t="n">
-        <v>74772.30263909959</v>
       </c>
       <c r="K2" t="n">
         <v>74772.30263909957</v>
       </c>
       <c r="L2" t="n">
-        <v>72043.0252835296</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="M2" t="n">
-        <v>72043.0252835296</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="N2" t="n">
         <v>72043.0252835296</v>
       </c>
       <c r="O2" t="n">
-        <v>71833.19353176959</v>
+        <v>71833.19353176962</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915088</v>
@@ -26421,13 +26421,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
         <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
-        <v>22.21667432804714</v>
+        <v>22.21667432804715</v>
       </c>
       <c r="G4" t="n">
         <v>23.85668684891895</v>
@@ -26525,13 +26525,13 @@
         <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>8478.555432738955</v>
+        <v>8478.555432738947</v>
       </c>
       <c r="E6" t="n">
         <v>50064.58648652713</v>
       </c>
       <c r="F6" t="n">
-        <v>50064.58648652714</v>
+        <v>50064.58648652713</v>
       </c>
       <c r="G6" t="n">
         <v>49644.4185221752</v>
@@ -26540,25 +26540,25 @@
         <v>2355.314235302274</v>
       </c>
       <c r="I6" t="n">
+        <v>59939.10137763392</v>
+      </c>
+      <c r="J6" t="n">
         <v>59939.10137763394</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59939.10137763395</v>
       </c>
       <c r="K6" t="n">
         <v>59939.10137763392</v>
       </c>
       <c r="L6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="M6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="N6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
-        <v>58697.45770564708</v>
+        <v>58697.45770564711</v>
       </c>
       <c r="P6" t="n">
         <v>48378.33248915088</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O8" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35416,16 +35416,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N11" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
         <v>25.62029119463083</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
         <v>27.59002526031614</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O18" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36686,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36914,7 +36914,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,10 +36923,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>215.3939976830282</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="M33" t="n">
         <v>215.3939976830282</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.20284867224837</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>117.7212987676277</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>80.06741185963574</v>
+        <v>110.973048317057</v>
       </c>
       <c r="O36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830282</v>
+        <v>22.20284867224841</v>
       </c>
       <c r="M39" t="n">
         <v>215.3939976830282</v>
@@ -37634,10 +37634,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>206.6912098978553</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>163.6414497888537</v>
+      </c>
+      <c r="N42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="M42" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>204.8010610469452</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
